--- a/GATEWAY/A1#111#AFFIDEAXX/AFFIDEA/AffideaHCIS/V.12.0/accreditamento-checklist_V8.2.4.xlsx
+++ b/GATEWAY/A1#111#AFFIDEAXX/AFFIDEA/AffideaHCIS/V.12.0/accreditamento-checklist_V8.2.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ombretta.bonino\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\test\accreditamento-sogei\CASE_TEST_X\A1#111#AFFIDEAXX\AffideaHCIS\V.12.0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211AB10D-4966-4D68-AF9D-CFEE7EDE5901}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11BB7E36-144D-450F-B581-2E7DD9701158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5400" yWindow="-21720" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13815" yWindow="-21600" windowWidth="19410" windowHeight="20985" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -1712,15 +1712,6 @@
     <t>subject_application_version: V.12.0</t>
   </si>
   <si>
-    <t>16:52:30.716</t>
-  </si>
-  <si>
-    <t>a910303450f998bd</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.a07d1de0d1d0c6041cef7ad324906ee2244867f7011819794a5d0dcd70381914.da4432444a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
     <t>16:52:23.861</t>
   </si>
   <si>
@@ -1788,33 +1779,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.30.4.4.04ddbf9e24dded3cf8fd166634872c19eb78e6823105df98e252533e459328e9.1be1c0dfc2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>11:01:25.372</t>
-  </si>
-  <si>
-    <t>340ceee31fadcee9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.446f749183c9cd906ee7680b1305cccbd7db821aee9e191df924e6f98ff26be0.64b0f75900^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>10:58:23.412</t>
-  </si>
-  <si>
-    <t>5b2f3a5c88c09d8f</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.5e6dc01e7b84f7d90421d4ce43ebc027f39bf6f5ae5eca2041ec5aa1aee463dd.53253bb171^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>16:56:14.556</t>
-  </si>
-  <si>
-    <t>f23845a11509e5f9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.30.4.4.3c20cd00c7f6cbcd0aa60e46b5febb205e63026ce809492b3a5001cf4cd45df9.f7c2a5d4c5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Attualmente il LIS non invia direttamente il referto verso FSE perchè inviato da un altro software che si occupa della pubblicazione su FSE. 
@@ -1831,6 +1795,42 @@
   </si>
   <si>
     <t>AFFIDEA</t>
+  </si>
+  <si>
+    <t>17:55:10.576</t>
+  </si>
+  <si>
+    <t>1f0ae054f4ca95f6c923113e6d9611a5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.01f2c93582594f6bc267c95b020c9c3e84bd2549c46f7e03e3db78587a86f963.1c9f1a369e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>18:06:46.883</t>
+  </si>
+  <si>
+    <t>a83512f05b7ca6d13e3bd241c62732bf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.f2c94a336bf52feb04f6f885433bcd6066526f4ef5ce622577c2ec6d828e5284.aea6f53672^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>18:12:15.018</t>
+  </si>
+  <si>
+    <t>af8f5226164e66139004a730654b7711</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.3d88a8f16ad73efe580cd7712474e6bc7da4c05e4632b805645592cb1ea7d31e.a883c45906^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>18:19:01.019</t>
+  </si>
+  <si>
+    <t>9400862038b4e65297684dfe601560cc</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.30.4.4.992f334bd19dae331da3dd393762eb7416291d055e66fac3fce9cf61f22d0062.4129edf89a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2418,6 +2418,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2439,9 +2442,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3898,15 +3898,15 @@
       <pane xSplit="4" ySplit="9" topLeftCell="E10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E4" sqref="E4"/>
+      <selection pane="bottomRight" activeCell="I174" sqref="I174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" customWidth="1"/>
-    <col min="2" max="2" width="46.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="63.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="38.85546875" customWidth="1"/>
     <col min="5" max="5" width="124.85546875" customWidth="1"/>
     <col min="6" max="8" width="33.140625" customWidth="1"/>
     <col min="9" max="9" width="147.7109375" bestFit="1" customWidth="1"/>
@@ -3941,14 +3941,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
-        <v>476</v>
-      </c>
-      <c r="D2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
+        <v>464</v>
+      </c>
+      <c r="D2" s="48"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3969,14 +3969,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="55" t="s">
+      <c r="B3" s="51"/>
+      <c r="C3" s="56" t="s">
         <v>434</v>
       </c>
-      <c r="D3" s="47"/>
+      <c r="D3" s="48"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3997,12 +3997,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="55" t="s">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56" t="s">
         <v>435</v>
       </c>
-      <c r="D4" s="47"/>
+      <c r="D4" s="48"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -4024,12 +4024,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
         <v>436</v>
       </c>
-      <c r="D5" s="47"/>
+      <c r="D5" s="48"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -4050,8 +4050,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -4203,16 +4203,16 @@
         <v>380</v>
       </c>
       <c r="F10" s="40">
-        <v>45719</v>
+        <v>45757</v>
       </c>
       <c r="G10" s="40" t="s">
-        <v>437</v>
+        <v>465</v>
       </c>
       <c r="H10" s="40" t="s">
-        <v>438</v>
+        <v>466</v>
       </c>
       <c r="I10" s="33" t="s">
-        <v>439</v>
+        <v>467</v>
       </c>
       <c r="J10" s="29" t="s">
         <v>66</v>
@@ -4233,7 +4233,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="31">
         <v>28</v>
       </c>
@@ -4253,13 +4253,13 @@
         <v>45720</v>
       </c>
       <c r="G11" s="33" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="H11" s="33" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="I11" s="39" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J11" s="29" t="s">
         <v>66</v>
@@ -4283,7 +4283,7 @@
         <v>234</v>
       </c>
       <c r="S11" s="29" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="T11" s="29"/>
       <c r="U11" s="34"/>
@@ -4551,7 +4551,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="31">
         <v>36</v>
       </c>
@@ -4571,13 +4571,13 @@
         <v>45720</v>
       </c>
       <c r="G19" s="33" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="H19" s="33" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="I19" s="39" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="J19" s="29" t="s">
         <v>66</v>
@@ -4601,7 +4601,7 @@
         <v>234</v>
       </c>
       <c r="S19" s="29" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="T19" s="29"/>
       <c r="U19" s="34"/>
@@ -4869,7 +4869,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="27" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="31">
         <v>44</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>234</v>
       </c>
       <c r="S27" s="29" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="T27" s="29"/>
       <c r="U27" s="34"/>
@@ -5193,7 +5193,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="31">
         <v>55</v>
       </c>
@@ -5213,13 +5213,13 @@
         <v>45719</v>
       </c>
       <c r="G35" s="33" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="H35" s="33" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="I35" s="39" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="J35" s="29" t="s">
         <v>66</v>
@@ -5243,7 +5243,7 @@
         <v>234</v>
       </c>
       <c r="S35" s="29" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="T35" s="29"/>
       <c r="U35" s="34"/>
@@ -5252,7 +5252,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="36" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="31">
         <v>56</v>
       </c>
@@ -5272,13 +5272,13 @@
         <v>45719</v>
       </c>
       <c r="G36" s="33" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="H36" s="33" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="I36" s="39" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="J36" s="29" t="s">
         <v>66</v>
@@ -5302,7 +5302,7 @@
         <v>234</v>
       </c>
       <c r="S36" s="29" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="T36" s="29"/>
       <c r="U36" s="34"/>
@@ -5311,7 +5311,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="37" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="31">
         <v>57</v>
       </c>
@@ -5331,13 +5331,13 @@
         <v>45719</v>
       </c>
       <c r="G37" s="33" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="H37" s="33" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="I37" s="39" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="J37" s="29" t="s">
         <v>66</v>
@@ -5361,7 +5361,7 @@
         <v>234</v>
       </c>
       <c r="S37" s="29" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="T37" s="29"/>
       <c r="U37" s="34"/>
@@ -5370,7 +5370,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="38" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="31">
         <v>58</v>
       </c>
@@ -5414,7 +5414,7 @@
         <v>234</v>
       </c>
       <c r="S38" s="29" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="T38" s="29"/>
       <c r="U38" s="34"/>
@@ -5423,7 +5423,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="39" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="31">
         <v>59</v>
       </c>
@@ -5443,13 +5443,13 @@
         <v>45719</v>
       </c>
       <c r="G39" s="33" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="H39" s="33" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="I39" s="39" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="J39" s="29" t="s">
         <v>66</v>
@@ -5473,7 +5473,7 @@
         <v>234</v>
       </c>
       <c r="S39" s="29" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="T39" s="29"/>
       <c r="U39" s="34"/>
@@ -5482,7 +5482,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="31">
         <v>60</v>
       </c>
@@ -5526,7 +5526,7 @@
         <v>234</v>
       </c>
       <c r="S40" s="29" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="T40" s="29"/>
       <c r="U40" s="34"/>
@@ -5535,7 +5535,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="41" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="31">
         <v>61</v>
       </c>
@@ -5555,13 +5555,13 @@
         <v>45720</v>
       </c>
       <c r="G41" s="33" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="H41" s="33" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="I41" s="39" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="J41" s="29" t="s">
         <v>66</v>
@@ -5585,7 +5585,7 @@
         <v>234</v>
       </c>
       <c r="S41" s="29" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="T41" s="29"/>
       <c r="U41" s="34"/>
@@ -5594,7 +5594,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="42" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="31">
         <v>62</v>
       </c>
@@ -5614,13 +5614,13 @@
         <v>45720</v>
       </c>
       <c r="G42" s="33" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="H42" s="33" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="I42" s="39" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="J42" s="29" t="s">
         <v>66</v>
@@ -5644,7 +5644,7 @@
         <v>234</v>
       </c>
       <c r="S42" s="29" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="T42" s="29"/>
       <c r="U42" s="34"/>
@@ -9555,16 +9555,16 @@
         <v>367</v>
       </c>
       <c r="F148" s="33">
-        <v>45730</v>
+        <v>45757</v>
       </c>
       <c r="G148" s="33" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="H148" s="33" t="s">
-        <v>464</v>
+        <v>472</v>
       </c>
       <c r="I148" s="39" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="J148" s="29" t="s">
         <v>66</v>
@@ -9602,16 +9602,16 @@
         <v>368</v>
       </c>
       <c r="F149" s="33">
-        <v>45730</v>
+        <v>45757</v>
       </c>
       <c r="G149" s="33" t="s">
-        <v>466</v>
+        <v>474</v>
       </c>
       <c r="H149" s="33" t="s">
-        <v>467</v>
+        <v>475</v>
       </c>
       <c r="I149" s="39" t="s">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="J149" s="29" t="s">
         <v>66</v>
@@ -10537,16 +10537,16 @@
         <v>378</v>
       </c>
       <c r="F174" s="33">
-        <v>45719</v>
+        <v>45757</v>
       </c>
       <c r="G174" s="33" t="s">
+        <v>468</v>
+      </c>
+      <c r="H174" s="33" t="s">
         <v>469</v>
       </c>
-      <c r="H174" s="33" t="s">
+      <c r="I174" s="39" t="s">
         <v>470</v>
-      </c>
-      <c r="I174" s="39" t="s">
-        <v>471</v>
       </c>
       <c r="J174" s="29" t="s">
         <v>66</v>
@@ -11011,7 +11011,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="187" spans="1:23" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:23" ht="15" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="31">
         <v>466</v>
       </c>
@@ -11027,17 +11027,17 @@
       <c r="E187" s="32" t="s">
         <v>424</v>
       </c>
-      <c r="F187" s="56">
+      <c r="F187" s="44">
         <v>45733</v>
       </c>
       <c r="G187" s="31" t="s">
-        <v>473</v>
+        <v>461</v>
       </c>
       <c r="H187" s="31" t="s">
-        <v>474</v>
+        <v>462</v>
       </c>
       <c r="I187" s="31" t="s">
-        <v>475</v>
+        <v>463</v>
       </c>
       <c r="J187" s="29" t="s">
         <v>66</v>
@@ -11061,7 +11061,7 @@
         <v>234</v>
       </c>
       <c r="S187" s="29" t="s">
-        <v>472</v>
+        <v>460</v>
       </c>
       <c r="T187" s="31"/>
       <c r="U187" s="31"/>
@@ -15339,6 +15339,11 @@
     <filterColumn colId="2">
       <filters>
         <filter val="LAB"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="22">
+      <filters>
+        <filter val="OK"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -17637,15 +17642,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -17655,6 +17651,15 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -17916,14 +17921,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
@@ -17936,6 +17933,14 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
